--- a/MainTop/12.08.2024/2недели Таня с 30.07.2024 по 12.08.2024/спрос_12-8-2024 2недели Таня с 30-7-2024 по 12-8-2024_sorted.xlsx
+++ b/MainTop/12.08.2024/2недели Таня с 30.07.2024 по 12.08.2024/спрос_12-8-2024 2недели Таня с 30-7-2024 по 12-8-2024_sorted.xlsx
@@ -653,7 +653,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H126" activeCellId="0" sqref="H126"/>
     </sheetView>
   </sheetViews>
